--- a/output-latest.xlsx
+++ b/output-latest.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:F81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,21 @@
           <t>bigscience/bloomz-7b1-mt</t>
         </is>
       </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>THUDM/chatglm2-6b</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>XuYipei/kw-cutegpt-13b-ift</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>baichuan-inc/Baichuan-13B-Chat</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -444,6 +459,22 @@
           <t>What kind of event is a marathon?</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>你好，我想请问你有关马拉松比赛的信息。</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">请问您参加过马拉松比赛吗？
+                                                                                                                     </t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>How can I prepare for a marathon?</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="B3" t="inlineStr">
@@ -456,6 +487,22 @@
           <t>明天上海的天气怎么样?</t>
         </is>
       </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>无法回答这个问题，因为我是一个计算机程序，我无法获取关于未来天气的信息。</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">明天上海的天气预报是什么？
+                                                                                                                        </t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>What will the weather be like in Shanghai tomorrow?</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="B4" t="inlineStr">
@@ -468,6 +515,26 @@
           <t>火星探测的目的是什么？</t>
         </is>
       </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>您好，我是 ChatGLM。关于火星探测，您有什么问题需要帮助吗？</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1. 火星探测任务的目标是什么？
+2. 火星探测任务中使用了哪些技术和设备？
+3. 火星探测任务的成功率如何？
+4. 火星探测任务的成本是多少？
+5. 火星探测任务的未来计划是什么？
+                                                                          </t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>问题：火星探测任务的主要目标是什么？</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="B5" t="inlineStr">
@@ -480,6 +547,23 @@
           <t>什么是环保？</t>
         </is>
       </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>好的，请问您想了解关于环保方面的问题吗？</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">如何在日常生活中采取环保措施来减少对环境的负面影响？
+                                                                                                                 </t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>主题：环保
+问题：在日常生活中，我们如何采取措施减少塑料垃圾对环境的影响？</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="B6" t="inlineStr">
@@ -492,6 +576,23 @@
           <t>苹果公司是做什么的？</t>
         </is>
       </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>苹果公司是一家全球知名的科技公司,成立于1976年,总部位于美国加利福尼亚州库比蒂诺市。该公司以其创新设计和高质量的产品而闻名,拥有多个知名品牌,包括iPhone、iPad、Mac、Apple Watch、AirPods等。苹果公司的产品广泛应用于消费电子、通讯、计算机、汽车和医疗等领域。
+苹果公司还是一家非常注重用户体验的公司,致力于为用户提供出色的产品体验和客户服务。公司的创始人史蒂夫·乔布斯(Steve Jobs)和史蒂夫·沃兹尼亚克(Steve Wozniak)在20世纪</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">苹果公司成立于哪一年？
+                                                                              </t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>问题: 苹果公司的创始人是谁？</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -509,6 +610,27 @@
           <t>我喜欢吃蔬菜。</t>
         </is>
       </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>我很喜欢吃蔬菜。</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">以下是几个与原句子意思相近且表达方式不同的句子：
+1. 我喜欢食用水果。
+2. 水果是我最喜欢的食物之一。
+3. 我喜欢吃各种各样的水果。
+4. 水果是我日常饮食中必不可少的一部分。
+5. 我喜欢吃新鲜的水果。
+                                                                </t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>我喜欢品尝各种水果。</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="B8" t="inlineStr">
@@ -521,6 +643,22 @@
           <t>他昨天完成了这个任务。</t>
         </is>
       </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>我明天要完成这个项目。</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">他昨天完成了这个任务。
+                                                                                                                         </t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>他昨天顺利地完成了这个任务。</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="B9" t="inlineStr">
@@ -531,6 +669,22 @@
       <c r="C9" t="inlineStr">
         <is>
           <t>他非常喜欢吃草莓。</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>她也很喜欢吃草莓。</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">他非常喜欢食用草莓。
+                                                                                                                         </t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>任务要求: 生成与给定句子意思相近且表达方式不同的句子。原句子: 他非常喜欢吃草莓。</t>
         </is>
       </c>
     </row>
@@ -547,6 +701,22 @@
           <t>她通常会在晚上看电视。</t>
         </is>
       </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>她通常在晚上看电视。</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">她通常会在晚上看电视。
+                                                                                                                        </t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>她通常在夜晚观看电视。</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="B11" t="inlineStr">
@@ -557,6 +727,2046 @@
       <c r="C11" t="inlineStr">
         <is>
           <t>I like to eat chocolate.</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>我也很喜欢喝咖啡。</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">我喜欢品尝巧克力。
+                                                                                                                         </t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>我喜欢品尝巧克力。</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>简短描述生成</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>任务要求：为狮子生成一个简短的描述。</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>狮子是猫科动物。</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>狮子是一种大型猫科动物，具有雄壮的外表和强大的攻击性。它们主要分布在非洲和亚洲地区，尤其是非洲的草原和森林地带。狮子是社会性动物，通常组成一个由几只至数十只个体组成的小群体，被称为狮群。狮子的主要食物包括瞪羚、斑马、牛羚等草食动物，但由于数量减少和栖息地破坏，许多狮子的生存环境正受到严重威胁。</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">狮子是一种大型猫科动物，通常有金黄色的皮毛和黑色的鬃毛。它们生活在非洲和印度的草原和森林中，是顶级捕食者之一，以狩猎其他动物为生。
+                                                                                 </t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>狮子是一种大型猫科动物，以其强壮的体格和雄伟的外表而闻名。雄性狮子拥有独特的鬃毛，使它们看起来更加威猛。狮子是群居动物，通常生活在一个由多个雌性、幼崽和一到两个雄性组成的狮群中。狮子是非洲大草原上的顶级捕食者，主要捕食羚羊、水牛和其他大型哺乳动物。尽管狮子在野外面临许多挑战，但它们在许多文化中被视为力量和勇气的象征。</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>任务要求：根据给定对象或主题生成一个简单的描述性句子。对象：长颈鹿</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>A long necked animal</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>长颈鹿是一种大型哺乳动物，具有长长的颈部，适合于在森林中寻找食物。</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">长颈鹿是一种生活在非洲的动物，它们有长长的脖子和腿，可以长达4米高，是世界上最高的陆地动物之一。
+                                                                                                </t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>长颈鹿是一种生活在非洲的大型哺乳动物，以其长长的脖子和纤细的四肢而闻名。</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>任务要求：根据给定对象或主题生成一个简单的描述性句子。对象：长颈鹿</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>A long necked animal</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>长颈鹿是一种大型哺乳动物，具有长长的颈部，适合于在森林中寻找食物。</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">长颈鹿是一种生活在非洲的动物，它们有长长的脖子和腿，可以长达4米高，是世界上最高的陆地动物之一。
+                                                                                                </t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>长颈鹿是一种生活在非洲的大型哺乳动物，以其长长的脖子和纤细的四肢而闻名。</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>任务要求：给出关于苹果的简短描述。</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>苹果是水果的一种。</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>苹果是一种广泛种植的水果，它是一种圆形或略带椭圆形的水果，通常有红色、绿色或黄色的皮。苹果富含维生素和纤维素，是一种重要的营养来源。苹果也是一种广泛用于烹饪和制造其他产品的天然材料。</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">苹果是一种圆形或卵形的水果，通常有红色、黄色或绿色的皮。它们通常是甜的，可以生食或加工成各种食品，如苹果汁、苹果酱和苹果派。
+                                                                                   </t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>苹果(学名：Malus domestica)是一种常见的水果，属于蔷薇科苹果属植物。苹果有多种颜色，如红色、绿色和黄色。苹果含有丰富的营养成分，如维生素C、钾和抗氧化剂。苹果不仅可以直接食用，还可以制作果汁、果酱和烘焙食品。苹果树原产于中亚地区，如今已成为全球广泛种植的果树。</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>任务要求：根据给定对象或主题生成一个简单的描述性句子。输入主题：苹果。</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>苹果是水果的一种。</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>苹果是一种营养丰富的水果，通常呈圆形或略带椭圆形。它们有红色、绿色或黄色的皮，内部肉质柔软而甜。苹果富含维生素和纤维素，有助于保持身体健康和饱腹感。</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Apple is a round fruit with red, yellow, or green skin, white flesh, core containing seeds, and a core containing core containing seeds, and a core containing core containing seeds, and a core containing core containing seeds, and a core containing core containing seeds, and a core containing core containing seeds, and a core containing core containing seeds, and a core containing core containing seeds, and a core containing core containing seeds, and a core containing core containing seeds, and a core containing core containing seeds, and a core containing core containing seeds, and a core containing core containing se</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>苹果是一种常见的水果，富含维生素和矿物质，对人体健康有益。</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 标题生成</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>任务要求: 根据以下文章内容生成一个标题。文章内容: 近日，一项研究表明，通过改变灯光的颜色和光强，可以显著提高工作效率和学习能力。研究显示，在白天，蓝色光可以提高专注力和警觉性，而在晚上，暖色调的灯光有助于放松并减轻眼睛疲劳。</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>近日，一项研究表明，通过改变灯光的颜色和光强，可以显著提高工作效率和学习能力。研究显示，在白天，蓝色光可以提高专注力和警觉性，而在晚上，暖色调的灯光有助于放松并减轻眼睛疲劳。</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>根据以上文章内容，我认为一个可能的标题是：“改变灯光颜色和光强可显著提高工作效率和学习能力”。</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">通过改变灯光颜色和光强，提高工作效率和学习能力
+                                                                                                                 </t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>标题建议: "改变灯光颜色和光强可显著提高工作效率和学习能力"</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>任务要求: 请根据下面的文章内容为这篇文章生成一个恰当的标题。
+文章内容: 随着电动汽车的普及，对于环境和交通的影响正在变得越来越显著。电动车的使用可以显著减少大气污染问题，并且节省用户的燃油成本。但是，电动汽车的充电设施建设仍然滞后，对于电动汽车的普及造成一定的限制。政府和企业需要加大投入，加速充电设施的建设，为电动汽车的发展创造良好的条件。</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>随着电动汽车的普及，对于环境和交通的影响正在变得越来越显著。电动车的使用可以显著减少大气污染问题，并且节省用户的燃油成本。但是，电动汽车的充电设施建设仍然滞后，对于电动汽车的普及造成一定的限制。政府和企业需要加大投入，加速充电设施的建设，为电动汽车的发展创造良好的条件。</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>电动汽车的普及对于环境和交通的影响正在变得越来越显著。电动车的使用可以显著减少大气污染问题，并且节省用户的燃油成本。但是，电动汽车的充电设施建设仍然滞后，对于电动汽车的普及造成一定的限制。政府和企业需要加大投入，加速充电设施的建设，为电动汽车的发展创造良好的条件。</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">加速充电设施建设，促进电动汽车发展
+                                                                                                                      </t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>标题建议: "加速充电设施建设：电动汽车普及的关键"</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>任务要求：请根据以下文章内容生成一个恰当的标题。
+自动驾驶汽车在近年来得到了极大的关注和发展。随着技术的不断进步，自动驾驶汽车具有许多潜在优势，如提高道路安全、减少交通拥堵和降低环境污染。然而，自动驾驶汽车也面临着许多挑战，包括技术难题、道路基础设施改进和道德伦理问题。尽管如此，许多专家预测，自动驾驶汽车将在未来10年内成为现实。</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>自动驾驶汽车在近年来得到了极大的关注和发展。随着技术的不断进步，自动驾驶汽车具有许多潜在优势，如提高道路安全、减少交通拥堵和降低环境污染。然而，自动驾驶汽车也面临着许多挑战，包括技术难题、道路基础设施改进和道德伦理问题。尽管如此，许多专家预测，自动驾驶汽车将在未来10年内成为现实。</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>自动驾驶汽车在近年来得到了极大的关注和发展。随着技术的不断进步，自动驾驶汽车具有许多潜在优势，如提高道路安全、减少交通拥堵和降低环境污染。然而，自动驾驶汽车也面临着许多挑战，包括技术难题、道路基础设施改进和道德伦理问题。尽管如此，许多专家预测，自动驾驶汽车将在未来10年内成为现实。</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">标题：自动驾驶汽车：技术、道路基础设施和道德伦理的挑战
+                                                                                                                </t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>标题建议：自动驾驶汽车的潜在优势与挑战</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>任务要求：根据以下文章摘要，请生成一个恰当的标题。
+摘要：随着网络安全问题越来越受到重视，越来越多的公司开始投入资源保护自己的网络系统。为了提高网络安全意识，并加强信息安全员的能力，公司应该定期为员工提供培训和指导。对于新员工，这不仅可以帮助他们了解公司的网络安全政策，还可以让他们了解如何应对潜在的网络风险。</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>为新员工提供培训</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>网络安全问题越来越受到重视，为了提高网络安全意识并加强信息安全员的能力，公司应该定期为员工提供培训和指导。对于新员工，这不仅可以帮助他们了解公司的网络安全政策，还可以让他们了解如何应对潜在的网络风险。</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">提高网络安全意识：定期为员工提供培训和指导
+                                                                                                                   </t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>标题建议：提高网络安全意识，加强员工培训和指导</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>任务要求：根据以下文章内容生成一个恰当的标题。
+最近，一款名为"Clubhouse"的社交软件在全球范围内爆红。Clubhouse是一款基于语音的社交应用程序，用户可以在各种主题的聊天室中参与实时对话。这款应用程序的独特之处在于它不支持文字、图片或视频交流，只允许用户以语音形式互动。这使得Clubhouse成为了一个充满活力的在线社区，在这里，人们可以亲身参与讨论、分享经验或者倾听别人的观点。</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Clubhouse是一款基于语音的社交应用程序，用户可以在各种主题的聊天室中参与实时对话。这款应用程序的独特之处在于它不支持文字、图片或视频交流，只允许用户以语音形式互动。这使得Clubhouse成为了一个充满活力的在线社区，在这里，人们可以亲身参与讨论、分享经验或者倾听别人的观点。</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>这款名为"Clubhouse"的社交软件在全球范围内爆红，它是一款基于语音的社交应用程序，用户可以在各种主题的聊天室中参与实时对话。这款应用程序的独特之处在于它不支持文字、图片或视频交流，只允许用户以语音形式互动。这使得Clubhouse成为了一个充满活力的在线社区，在这里，人们可以亲身参与讨论、分享经验或者倾听别人的观点。</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">"Clubhouse：一个基于语音的社交社区"
+                                                                                                                   </t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>标题建议：Clubhouse：基于语音的全球爆红社交应用程序</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>简单语句生成</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>生成一个关于太阳的简单句子</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>The sun rises in the east and sets in the west.</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>The sun is a star located at the center of our solar system.</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">太阳是太阳系中最大的天体，它为地球提供了光和热。
+                                                                                                             </t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>The Sun is the closest star to Earth and provides us with light and warmth.</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>生成一个关于环保的简单语句。</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>保护环境，人人有责。</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>让我们一起为环保出一份力吧！</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">保护环境是我们每个人的责任，让我们一起行动起来，为地球创造一个更美好的未来。
+                                                                                                            </t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>保护环境，从我做起。</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>生成一个关于太阳能的简单句子。</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>太阳能的优点有很多。</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>太阳能是一种可再生能源，通过太阳光能将太阳能转化为电能。</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">太阳能是一种清洁、可再生的能源，可以减少对化石燃料的依赖并减少对环境的影响。
+                                                                                                         </t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>太阳能是一种可再生能源，可以通过太阳能电池板将太阳光转化为电能。</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>生成一句关于北京今天的天气的简单句子。</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>北京今天很热。</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>今天北京的天气晴朗。</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">今天北京天气晴朗，阳光明媚。
+                                                                                                                     </t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>今天北京的天气晴朗，适合户外活动。</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>生成一个关于篮球的简单句子。</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>篮球运动是一项非常受欢迎的运动。</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>篮球是一项受欢迎的团体运动，可以提高心肺健康和团队合作精神。</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">篮球是一项非常受欢迎的运动。
+                                                                                     </t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Basketball is a popular team sport played worldwide.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>复杂语句生成</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>生成一个包含时间、地点、人物、动作和原因的复杂句子。</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>There was a man who was walking down the street when he was hit by a car.</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>很抱歉，您没有提供足够的信息来生成一个包含时间、地点、人物、动作和原因的复杂句子。请提供更多信息，以便我能够更好地帮助您。</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">在昨天晚上，我和朋友去了电影院看电影，但我们迟到了，因为我们在路上遇到了交通拥堵。
+                                                                                                     </t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>昨天下午，玛丽在图书馆里借了一本书，因为她需要为明天的历史课做准备。</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>请将以下信息组织成一个复杂的句子：
+1. 昨天下午
+2. 小红
+3. 公园
+4. 去遛狗
+5. 遇见小明
+6. 踢足球</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>小红昨天下午去公园遛狗，遇见小明踢足球。</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>昨天下午，小红去公园遛狗，遇见了小明，两人一起踢足球。</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">昨天下午，小红在公园遇见了小明，他们一起去踢足球。
+                                                                                                              </t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>昨天下午，小红在公园去遛狗时，竟然遇见了踢足球的小明。</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>生成一个描述天气和相关活动的复杂句子</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>The sky is cloudy today. There will be rain tomorrow.</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>今天,北京的天气晴朗,最高气温达到了18摄氏度。由于天气晴朗,许多人选择外出活动,包括去公园散步、骑自行车、打羽毛球等。此外,今天也有一场重要的足球比赛在北京国家体育场举行。</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">今天天气晴朗，阳光明媚，人们在公园里散步，孩子们在草坪上玩耍，鸟儿在树枝上欢快地歌唱。
+                                                                                              </t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>The weather was sunny and warm, perfect for outdoor activities such as hiking, cycling, and barbecuing.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>生成一个关于跑步锻炼和雨天的复杂句子。</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>跑步锻炼对健康有益，但是下雨天不适合跑步。</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>在雨天跑步锻炼身体是一个很好的方式来保持身体健康和放松心情。在户外跑步，身体会感受到雨水的滋润，这种感觉可以带来愉悦的体验。此外，在雨天跑步还可以增强心肺功能，促进新陈代谢，让身体更加健康。总的来说，在雨天跑步锻炼身体是一个很好的方式来保持身体健康和放松心情。</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">即使在雨天，跑步锻炼也是保持身体健康的好方法。
+                                                                                                                  </t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>在雨天跑步可能会很困难，因为地面湿滑且视线不佳。然而，跑步仍然是一种很好的锻炼方式，可以帮助提高心肺功能、增强肌肉力量并减轻压力。为了在雨天跑步时保持安全，穿着合适的跑鞋和防水衣物是至关重要的。此外，跑步时应保持较慢的速度，以降低摔倒的风险。虽然雨天跑步可能不是最佳选择，但它仍然是一种有趣且有益的锻炼方式。</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>生成一个关于环保问题的复杂句子，其中涉及政府、个人行为和企业责任。</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>政府、个人行为和企业都有责任保护环境。</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>政府和企业社会责任是解决环保问题的关键，个人行为也对环保问题产生了重要影响。政府应该制定和执行更加严格的环保法规和政策，以鼓励和引导企业履行社会责任。同时，个人也应该从自身做起，采取积极的环保行为，如减少用纸、减少用塑料袋等，为环保事业贡献自己的力量。只有政府、企业和个人的共同努力，才能实现可持续发展的环保目标。</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">政府、个人和企业都有责任采取措施来减少对环境的负面影响。政府可以制定更严格的环保法规，个人可以采取可持续的生活方式，企业可以采取环保措施来减少其对环境的影响。
+                                                                                 </t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>In response to the increasing environmental challenges, the government, individuals, and businesses must all take responsibility to ensure a sustainable future. The government should implement strict environmental regulations and incentives for businesses to adopt eco-friendly practices. Additionally, individuals should make conscious efforts to reduce their carbon footprint by using public transportation, recycling, and conserving energy. As for businesses, they should invest in green technology and prioritize the environmental impact of their operations. By working together, the government, individuals, and businesses can make a signific</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>格式短文生成</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>请生成一个关于环保的简短且格式规范的段落。</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>保护环境，人人有责。</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>保护环境是我们每个人的责任。我们应该采取措施，减少对地球的负面影响，保护我们的家园。以下是一些可以采取的措施：
+1. 减少使用一次性塑料制品，如购物袋，吸管和餐具。选择环保的可重复使用的替代品。
+2. 节约用水。尽量减少每天使用的水量，例如洗车时不要乱洒水、不浪费水等。
+3. 减少使用化学品。尽可能地减少使用有害化学品，如杀虫剂和农药等。
+4. 推广垃圾分类。将垃圾归类为可回收，有害和非可回收</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">保护环境是我们每个人的责任。我们可以通过减少使用塑料袋和瓶子、节约用水和用电、分类垃圾等方式来减少对环境的负面影响。同时，政府和企业也应该加强环保意识，制定更加严格的环保法规和标准，共同推动环保事业的发展。只有这样，我们才能创造一个更加美好、健康和可持续的环境。
+                                                  </t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>环保是当今社会面临的一大挑战。随着工业化和城市化的快速发展，环境污染和资源枯竭问题日益严重。为了保护地球和人类的未来，我们必须采取措施减少污染、节约资源并提高能源利用效率。政府、企业和个人都应承担起环保责任，共同努力实现可持续发展。首先，政府应制定严格的环保法规，对污染企业进行惩罚。其次，企业应采用环保技术，减少废物排放，提高资源利用率。最后，个人也应养成环保的生活习惯，如节约用水、用电，减少一次性塑料制品的使用等。只有</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>根据以下关键词生成一个简短且格式规范的段落：环保、能源、节省、太阳能</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>节约能源，保护环境。</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>为了节省能源和环保，我们建议使用太阳能作为主要能源来源。太阳能是一种可再生的清洁能源，它不会产生任何污染物或温室气体。通过安装太阳能电池板，可以将太阳能转化为电能并储存起来，以便在夜间或天气不好时使用。此外，使用太阳能还可以减少对化石燃料的依赖，从而降低温室气体排放量。因此，我们强烈建议您考虑使用太阳能作为主要能源来源，以实现可持续发展和环保目标。</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">为了环保和节省能源，我们应该尽可能地使用太阳能。太阳能是一种可再生能源，它不会产生任何污染物或温室气体。通过使用太阳能，我们可以减少对化石燃料的依赖，从而减少对环境的负面影响。此外，使用太阳能还可以帮助我们节省能源费用，因为它是一种免费的能源来源。因此，我们应该尽可能地使用太阳能来保护环境和节省能源。
+                                             </t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>随着环保意识的不断提高，越来越多的人开始关注能源的有效利用。太阳能作为一种清洁、可再生的能源，为我们提供了节省传统能源消耗的有效途径。通过安装太阳能电池板，我们可以将太阳能转化为电能，从而减少对石油、煤炭等非可再生能源的依赖，降低碳排放，保护地球环境。</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>请根据以下关键词，生成一个简短且格式规范的段落：环保、节约资源、可持续发展</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>环保、节约资源、可持续发展</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>为了实现可持续发展，我们应该采取一系列措施来保护环境和节约资源。例如，我们可以采取以下措施：
+1. 提高能源利用效率，减少浪费和污染。
+2. 推广可再生能源，如太阳能和风能，以减少对化石燃料的依赖。
+3. 减少塑料制品的使用，例如一次性塑料袋和一次性餐具，以减少塑料污染。
+4. 推广循环经济，例如回收和再利用废弃物，以减少废弃物的数量。
+5. 鼓励节约用水，例如在刷牙时关闭水龙头，以减少用水量。
+6. 减少食品</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">为了实现环保、节约资源和可持续发展，我们需要采取一系列措施。首先，我们应该尽可能地减少使用一次性塑料制品，例如购物袋和吸管。其次，我们应该尽可能地利用可再生能源，例如太阳能和风能，以减少对化石燃料的依赖。最后，我们应该尽可能地回收和再利用废物，例如纸张、塑料瓶和金属罐。通过这些措施，我们可以减少对环境的负面影响，实现可持续发展。
+                          </t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>在当今社会，环保已成为人们关注的焦点。为了实现可持续发展，我们必须节约资源，减少浪费。这不仅有助于保护环境，还能确保我们的子孙后代能够在一个健康、繁荣的环境中生活。因此，我们应该从日常生活中做起，养成良好的环保习惯，为实现可持续发展贡献自己的力量。</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>请生成一个关于环保的简短且格式规范的段落。</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>保护环境，人人有责。</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>保护环境是我们每个人的责任。我们应该采取措施，减少对地球的负面影响，保护我们的家园。以下是一些可以采取的措施：
+1. 减少使用一次性塑料制品，如购物袋，吸管和餐具。选择环保的可重复使用的替代品。
+2. 节约用水。尽量减少每天使用的水量，例如洗车时不要乱洒水、不浪费水等。
+3. 减少使用化学品。尽可能地减少使用有害化学品，如杀虫剂和农药等。
+4. 推广垃圾分类。将垃圾归类为可回收，有害和非可回收</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">保护环境是我们每个人的责任。我们可以通过减少使用塑料袋和瓶子、节约用水和用电、分类垃圾等方式来减少对环境的负面影响。同时，政府和企业也应该加强环保意识，制定更加严格的环保法规和标准，共同推动环保事业的发展。只有这样，我们才能创造一个更加美好、健康和可持续的环境。
+                                                  </t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>环保是当今社会面临的一大挑战。随着工业化和城市化的快速发展，环境污染和资源枯竭问题日益严重。为了保护地球和人类的未来，我们必须采取措施减少污染、节约资源并提高能源利用效率。政府、企业和个人都应承担起环保责任，共同努力实现可持续发展。首先，政府应制定严格的环保法规，对污染企业进行惩罚。其次，企业应采用环保技术，减少废物排放，提高资源利用率。最后，个人也应养成环保的生活习惯，如节约用水、用电，减少一次性塑料制品的使用等。只有</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>生成一个关于环保的简短且格式规范的段落。</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>保护环境，人人有责。保护环境，人人有责。保护环境，人人有责。保护环境，人人有责。保护环境，人人有责。保护环境，人人有责。保护环境，人人有责。保护环境，人人有责。保护环境，人人有责。保护环境，人人有责。保护环境，人人有责。保护环境，人人有责。保护环境，人人有责。保护环境，人人有责。保护环境，人人有责。保护环境，人人有责。保护环境，人人有责。保护环境，人人有责。保护环境</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>保护环境是我们每个人的责任。我们应该采取措施，减少对地球的负面影响，保护我们的家园。以下是一些可以采取的措施：
+1. 减少使用一次性塑料制品，如购物袋，吸管和餐具。选择环保的可重复使用的替代品。
+2. 节约用水。尽量减少每天使用的水量，例如洗车时不要乱洒水、不浪费水等。
+3. 减少使用化学品，如杀虫剂和农药等。选择环保的替代品，或者采取措施减少使用。
+4. 推广垃圾分类。将垃圾归类为可回收</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">保护环境是我们每个人的责任。我们可以通过减少使用一次性塑料制品、节约用水和用电、分类垃圾等方式来减少对环境的负面影响。同时，政府和企业也应该加强环保意识，制定更加严格的环保法规和标准，共同推动环保事业的发展。只有这样，我们才能创造一个更加美好、健康和可持续的环境。
+                                                    </t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>环保是当今社会面临的一大挑战。随着工业化和城市化的快速发展，环境污染和资源枯竭问题日益严重。为了保护地球和人类的未来，我们必须采取措施减少污染、节约资源并提高能源利用效率。政府、企业和个人都应该承担起环保责任，共同努力实现可持续发展。首先，政府应该制定严格的环保法规，对污染企业进行惩罚。其次，企业应该采用环保技术，减少废物排放。最后，个人也应该养成环保的生活习惯，如节约用水、用电，减少一次性塑料制品的使用等。只有大家共同努力，我们</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>短摘要生成</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>任务要求：请根据以下原文生成一个简短的摘要，准确概括文章内容。
+原文：苹果公司于2021年发布了新款MacBook Pro笔记本电脑，该款笔记本搭载M1芯片，性能大幅度提升。新款MacBook Pro还引入了MagSafe充电接口和HDMI端口，回归经典设计。此外，新款MacBook Pro取消了Touch Bar，改为实体按键。</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>新款MacBook Pro笔记本电脑搭载M1芯片，性能大幅度提升。新款MacBook Pro还引入了MagSafe充电接口和HDMI端口，回归经典设计。此外，新款MacBook Pro取消了Touch Bar，改为实体按键。</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>苹果公司于2021年发布了新款MacBook Pro笔记本电脑，该款笔记本搭载M1芯片，性能大幅度提升。新款MacBook Pro还引入了MagSafe充电接口和HDMI端口，回归经典设计。此外，新款MacBook Pro取消了Touch Bar，改为实体按键。</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">苹果公司于2021年发布了新款MacBook Pro笔记本电脑，该款笔记本搭载M1芯片，性能大幅度提升。新款MacBook Pro还引入了MagSafe充电接口和HDMI端口，回归经典设计。此外，新款MacBook Pro取消了Touch Bar，改为实体按键。
+                                                                 </t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Apple released the new MacBook Pro laptop in 2021, featuring the M1 chip for significantly improved performance. The new model also includes MagSafe charging and an HDMI port, returning to a classic design. Additionally, the Touch Bar has been removed and replaced with physical keys.</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>任务要求：请根据以下文章内容，生成一个简短的摘要。文章内容：自动驾驶汽车在近年来引起了广泛关注。谷歌、特斯拉等公司投入大量资源研究开发自动驾驶汽车。据调查显示，自动驾驶汽车的市场潜力巨大，有可能对社会带来很大的影响。然而，这项技术也面临着一些挑战，如道路安全、法规和道德等问题。</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>自动驾驶汽车在近年来引起了广泛关注。谷歌、特斯拉等公司投入大量资源研究开发自动驾驶汽车。据调查显示，自动驾驶汽车的市场潜力巨大，有可能对社会带来很大的影响。然而，这项技术也面临着一些挑战，如道路安全、法规和道德等问题。</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>自动驾驶汽车在近年来引起了广泛关注。谷歌、特斯拉等公司投入大量资源研究开发自动驾驶汽车。据调查显示，自动驾驶汽车的市场潜力巨大，有可能对社会带来很大的影响。然而，这项技术也面临着一些挑战，如道路安全、法规和道德等问题。</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">自动驾驶汽车近年来备受关注，谷歌、特斯拉等公司投入大量资源研究开发。市场潜力巨大，但也存在道路安全、法规和道德等方面的挑战。
+                                                                                           </t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>近年来，自动驾驶汽车因其巨大的市场潜力而受到广泛关注。谷歌、特斯拉等公司投入大量资源进行研究和开发。尽管这项技术面临着道路安全、法规和道德等方面的挑战，但其市场潜力仍然巨大，有可能对社会产生深远影响。</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>请根据以下原文，生成一个简短的摘要，准确概括文章内容。原文：科学家们已经发现了太阳系中第三大的天然卫星。这颗名为加涅梅得的新卫星属于木星的一部分，其直径约为5,260公里。这颗卫星的表面富含水分，给未来的太空探索提供了一个有趣的研究目标，因为这暗示着该卫星可能存在生命。</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>科学家们已经发现了太阳系中第三大的天然卫星。这颗名为加涅梅得的新卫星属于木星的一部分，其直径约为5,260公里。这颗卫星的表面富含水分，给未来的太空探索提供了一个有趣的研究目标，因为这暗示着该卫星可能存在生命。</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>科学家已经在太阳系中发现了第三大的天然卫星，名为加涅梅得。这颗卫星直径约为5,260公里，属于木星的一部分。科学家们认为，这颗卫星的表面富含水分，这为未来的太空探索提供了一个有趣的研究目标。</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">科学家们发现了太阳系中第三大的天然卫星——加涅梅得，它属于木星的一部分，直径约为5,260公里，表面富含水分，为未来的太空探索提供了一个有趣的研究目标，因为这暗示着该卫星可能存在生命。
+                                                                        </t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Scientists have discovered the third largest natural satellite in the solar system, named Ganymede. Part of Jupiter, it has a diameter of approximately 5,260 kilometers. Ganymede's surface is rich in water, making it an interesting research target for future space exploration, suggesting the possibility of life on the satellite.</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>任务: 请生成一篇短摘要来概括以下文章内容。
+原文：亚马逊宣布，将在未来五年内为旗下云计算部门AWS创建20万个新的高薪工作。这一雄心勃勃的计划是该公司应对日益增长的需求的一个重要举措。这些新的工作机会将包括数据科学家、网络工程师和软件开发人员等岗位，他们将帮助亚马逊进一步扩大其在市场上的份额。据悉，这些岗位的平均年薪将超过15万美元。</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>亚马逊宣布，将在未来五年内为旗下云计算部门AWS创建20万个新的高薪工作。</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>亚马逊为旗下云计算部门AWS创建20万个新的高薪工作,是该公司应对日益增长的需求的一个重要举措。这些新的工作机会将包括数据科学家、网络工程师和软件开发人员等岗位,帮助亚马逊进一步扩大其在市场上的份额。据悉,这些岗位的平均年薪将超过15万美元。</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">亚马逊宣布将在未来五年内为旗下云计算部门AWS创建20万个新的高薪工作，以应对日益增长的需求。这些新的工作机会将包括数据科学家、网络工程师和软件开发人员等岗位，并将帮助亚马逊进一步扩大其在市场上的份额。据悉，这些岗位的平均年薪将超过15万美元。
+                                                       </t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Amazon has announced its plan to create 200,000 new high-paying jobs for its cloud computing division AWS within the next five years. This ambitious initiative is an important measure to address the growing demand. The new job opportunities will encompass roles such as data scientists, network engineers, and software developers, helping Amazon further expand its market share. It is reported that the average annual salary for these positions will exceed $150,000.</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>任务要求：根据以下给出的原文，生成一个简短的摘要，准确概括文章内容。原文：科学家们发现了一种新的生物材料，称为液态金属生物材料。这种材料具有多种潜在应用，包括在生物医学和机器人技术领域。这种新型材料的主要特点是在室温下保持液态，且具有高度的可塑性和传导性。研究人员认为，这种液态金属生物材料将为未来的创新科技发展提供巨大助力。</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>科学家们发现了一种新的生物材料，称为液态金属生物材料。这种材料具有多种潜在应用，包括在生物医学和机器人技术领域。这种新型材料的主要特点是在室温下保持液态，且具有高度的可塑性和传导性。研究人员认为，这种液态金属生物材料将为未来的创新科技发展提供巨大助力。</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>科学家们研发出了一种新型生物材料——液态金属生物材料，这种材料在生物医学和机器人技术领域具有广泛的应用潜力。液态金属生物材料的主要特点是室温下保持液态，且具有高度的可塑性和传导性。据研究人员介绍，这种新型材料将为未来的创新科技发展提供强大助力。</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">科学家们发现了一种新的生物材料，称为液态金属生物材料，具有多种潜在应用，包括在生物医学和机器人技术领域。这种新型材料的主要特点是在室温下保持液态，且具有高度的可塑性和传导性。研究人员认为，这种液态金属生物材料将为未来的创新科技发展提供巨大助力。
+                                                       </t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Scientists have discovered a new biological material called liquid metal biological material. This innovative material possesses numerous potential applications in fields such as biomedicine and robotics. The key feature of this novel material is its ability to maintain liquid state at room temperature, as well as its high plasticity and conductivity. Researchers believe that this liquid metal biological material will significantly contribute to the development of innovative technologies in the future.</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>领域翻译</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>任务：将以下科技领域的英文文本翻译成中文。原文：Quantum entanglement is a quantum mechanical phenomenon in which the quantum states of two or more objects have to be described with reference to each other, even though the individual objects may be spatially separated.</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Quantum entanglement is a quantum mechanical phenomenon in which the quantum states of two or more objects have to be described with reference to each other, even though the individual objects may be spatially separated.</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>量子纠缠是一种量子力学现象，其中两个或更多对象的量子状态必须相互描述，即使它们在空间上可能被分离。</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">量子纠缠是一种量子力学现象，在这种现象中，两个或多个物体的量子状态必须相互描述，即使它们在空间上是分开的。
+                                                                                              </t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>任务:将以下医学领域英文文本翻译成中文
+文本: The patient was diagnosed with diabetes mellitus and prescribed insulin therapy.</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>The patient was diagnosed with diabetes mellitus and prescribed insulin therapy.</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>患者被诊断为糖尿病并且被开了胰岛素治疗方案。</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">病人被诊断出患有糖尿病，并被处方了胰岛素治疗。
+                                                                                                            </t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>任务要求：将以下科技领域文本从英语翻译成中文。原文：Artificial intelligence (AI) refers to the simulation of human intelligence in machines that are programmed to think like humans and mimic their actions. The term may also be applied to any machine that exhibits traits associated with a human mind such as learning and problem-solving.</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>AI</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>人工智能（AI）是指用编程让机器像人类一样思考并模仿人类行为的模拟。这个术语也可以用来描述任何具有人类思维特征的机器，例如学习和解决问题能力。</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">人工智能（AI）是指在机器中模拟人类思维并模仿其行动。该术语也可应用于任何具有类似于人类思维特征的机器，例如学习和解决问题。
+                                                                                            </t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>任务要求：将下面的科技领域英文文本翻译成中文。
+文本：The development of artificial intelligence has brought significant changes to various industries, such as healthcare, finance, and manufacturing.</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>金融领域</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>人工智能的发展已经对各个行业带来了显著的变化，如医疗保健、金融和制造业等。</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">人工智能的发展带来了显著的改变，如医疗保健、金融和制造业等各个行业。
+                                                                                                             </t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>任务: 将以下科技领域的英文文本翻译成中文。输入: The next generation wireless communication systems, known as 5G, will be a major shift in the way we use technology. It will enable faster data transfer speeds, better connectivity, and improved network efficiency.</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>5G, will be a major shift in the way we use technology. It will enable faster data transfer speeds, better connectivity, and improved network efficiency.</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>将 5G 翻译成中文。</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">下一代无线通信系统，即5G，将极大地改变我们使用技术的方式。它将使数据传输速度更快，连接性更好，并提高网络效率。
+                                                                                            </t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>创意文案生成</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>为一款新推出的运动鞋品牌创作一条具有创意、吸引力且独特的宣传文案。</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>宣传文案应该具有创意、吸引力且独特。</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>为一款新推出的运动鞋品牌创作一条具有创意、吸引力且独特的宣传文案。
+这款运动鞋品牌致力于为年轻人创造高品质、高性能的运动鞋。我们采用最先进的技术和材料，打造舒适、耐用、时尚的运动鞋。无论是跑步、散步还是去健身房，我们的运动鞋都能让你轻松自如，享受运动带来的快乐。如果你想变得更加自信、健康，那么我们的运动鞋绝对是你的不二选择。现在就来试试我们的运动鞋吧！</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">为新推出的运动鞋品牌创作一条具有创意、吸引力且独特的宣传文案，可以考虑以下几个方面：
+1. 强调品牌的独特性和创新性，突出其与竞争对手的差异化。
+2. 强调品牌的品质和性能，突出其在运动鞋市场上的优越性。
+3. 强调品牌的环保和可持续性，突出其对社会和环境的贡献。
+4. 结合品牌的定位和目标受众，设计一个吸引人的口号或标语，突出品牌的个性和魅力。
+                 </t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>为一款新推出的瑜伽垫创作一条具有吸引力和创意的宣传文案</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>宣传文案：瑜伽垫，让你的生活更美好。</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>创意瑜伽垫宣传文案示例如下:
+“瑜伽让你的身体和心灵得到全面的放松和修复。我们的全新瑜伽垫不仅具有出色的舒适度和支撑力,更可以帮助你深度放松身体和舒缓心灵。无论你是初学者还是经验丰富的瑜伽爱好者,我们的瑜伽垫都能为你带来完美的瑜伽体验。现在就来尝试吧!”</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">"释放你的身体，释放你的心灵。我们的瑜伽垫是您瑜伽练习的完美伴侣，让您在舒适的垫子上尽情舒展身体，感受内心的平静与和谐。"
+                                                                                      </t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>生成一条关于夏日限定冰淇淋的创意文案，要求包含以下元素：清凉、美味、夏日限定。</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>清凉美味，夏日限定。</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>夏日炎炎，如何消暑解渴？来试试我们的夏日限定冰淇淋吧！每一口都散发着清凉的口感，让人陶醉其中。这个夏天，让我们共同享受这份美味，感受夏日的限定冰淇淋之旅！</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">夏日限定的清凉美味冰淇淋，让您在炎热的夏日里尽情享受清凉与美味的完美结合！
+                                                                                                   </t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>为一款名为"星空之旅"的夜间观星旅游活动创作一个宣传文案。</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>宣传文案：
+活动时间：
+活动地点：
+活动对象：
+活动内容：
+活动费用：
+活动时间：
+活动地点：
+活动对象：
+活动内容：
+活动费用：
+活动时间：
+活动地点：
+活动对象：
+活动内容：
+活动费用：
+活动时间：
+活动地点：
+活动对象：
+活动内容：
+活动费用：
+活动时间：
+活动地点：
+活动对象：
+活动内容：
+活动费用：
+活动时间：
+活动地点：
+活动对象：
+活动内容：
+活动费用：
+活动时间：
+活动地点：
+活动</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>以下是一份适用于这款名为"星空之旅"的夜间观星旅游活动的宣传文案:
+欢迎来到"星空之旅",我们为您准备了一次令人难以忘怀的夜间观星旅游体验!
+在这个活动中,您将加入我们的专业导游,一起探索宇宙中的奇迹。我们将在一个黑暗而安静的夜晚,带您去一个位于城市边缘的美丽观星地。
+在这里,您将能够欣赏到壮观的星空,并了解有关星星和宇宙的有趣事实。我们的导游还将为您提供一些天文知识和技巧,帮助您更好地欣赏星空。
+我们的"星空之旅</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">"星空之旅" 让您在繁星点点的夜空中漫步，感受神秘的宇宙之美。我们提供专业的导游和设备，让您在安全和舒适的环境中探索星空的奥秘。加入我们，开启一段难忘的星空之旅！
+                                                                    </t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>生成一个关于环保水瓶的创意文案。</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>环保水瓶可以装水，也可以装咖啡。</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>"回收环保水瓶，让地球更美好！每个环保水瓶都是由100%再生材料制成的，既环保又可重复使用。将废弃的瓶子回收再利用，减少浪费，让我们的地球更加美好。立即行动起来，加入环保行动，让地球更美好！"</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">"保护地球，从我做起！环保水瓶，让生活更美好！"
+                                                                                                            </t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>风格改写</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>任务要求：将正式语体转为口语。文本：尊敬的先生或女士，我们收到了您的来信，并对您的支持表示感谢。我们会尽快处理您的问题并尽力解决。</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>尊敬的先生或女士，我们收到了您的来信，并对您的支持表示感谢。我们会尽快处理您的问题并尽力解决。</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>您好，我是XXX。</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">尊敬的先生或女士，我们收到了您的来信，并对您的支持表示感谢。我们会尽快处理您的问题并尽力解决。
+                                                                                                  </t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>任务:风格改写
+原文:敬爱的领导，您好！我非常荣幸地通知您，我们的项目已经成功完成。
+目标风格:口语</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>敬爱的领导，您好！我非常荣幸地通知您，我们的项目已经成功完成。</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>非常感谢！我很高兴听到项目已经成功完成。</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">尊敬的领导，您好！我非常高兴地告诉您，我们的项目已经成功完成了！
+                                                                                                           </t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>任务:将以下文本转换为口语风格。 文本:在本次会议上，我们将讨论公司未来发展的战略规划，以确保我们在这个竞争激烈的市场中取得成功。</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>在本次会议上，我们将讨论公司未来发展的战略规划，以确保我们在这个竞争激烈的市场中取得成功。</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>我们将在这次会议上讨论公司的战略规划，以确保我们在竞争激烈的市场中取得成功。</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">在本次会议上，我们将讨论公司未来发展的战略规划，以确保我们在这个竞争激烈的市场中取得成功。
+                                                                                                      </t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>任务:风格改写
+原文:在我们进行软件开发的过程中，为了确保产品的质量和稳定性，我们需要对代码进行测试。
+目标风格:口语</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>风格改写</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>为了确保产品的质量和稳定性，我们需要对代码进行风格检查。</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">We need to test the code to make sure the quality and stability of the product.
+                                                                                                              </t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>任务要求: 将以下正式语体的文本转换为口语风格。文本: 由于天气恶劣，我们不得不取消原定的露天活动。</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>天气恶劣，我们不得不取消原定的露天活动。</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>由于天气太恶劣了，我们不得不取消原定的露天活动。</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">由于天气太糟糕了，我们只能取消原定的户外活动。
+                                                                                                                </t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>幽默文案生成</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>请为一款创意杯子写一个幽默诙谐的文案吸引顾客购买。</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>创意杯子，创意生活，创意杯子，创意杯子，创意杯子，创意杯子，创意杯子，创意杯子，创意杯子，创意杯子，创意杯子，创意杯子，创意杯子，创意杯子，创意杯子，创意杯子，创意杯子，创意杯子，创意杯子，创意杯子，创意杯子，创意杯子，创意杯子，创意杯子，创意杯子，创意杯子，创意杯子，创意杯子，创意杯子，创意杯子，创意杯子，创意杯子，创意</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>"这款创意杯子保证让你在喝水时笑逐颜开！它们采用独特的设计和材料，让你无论在办公室还是在家里都能享受独特的喝水体验。而且，我们还为你提供了各种不同口味的选择，让你可以尽情选择自己喜欢的味道。所以，赶快来买一个吧，让喝水变得更加有趣！"</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>欢迎来到创意杯子的世界！我们的杯子不仅仅是用来喝水的，它们还有着各种各样的幽默诙谐的文案，让您在喝水的同时也能够享受到一些轻松愉悦的时光。
+我们的杯子文案涵盖了各种主题，包括但不限于：
+- 生活哲理
+- 搞笑段子
+- 流行文化
+- 名人名言
+- 历史典故
+- 科技前沿
+- 社会热点
+我们相信，无论您是喜欢什么类型的文案，都能够在我们的创意杯子中找到适合自己的那一款。
+购买我们的</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>为一款吸尘器编写一条幽默诙谐的广告文案。</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>吸尘器的广告文案应该写得幽默诙谐。</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>以下是一份幽默诙谐的吸尘器广告文案：
+“吸！吸！吸！重要的事情说三遍！这款吸尘器不仅能够吸走灰尘和污垢，还能把你的心情也吸走！使用它后，你会发现世界都变得清新明亮，心情愉悦！而且，它的吸力是普通吸尘器的十倍！别犹豫了，赶紧来试试吧！吸！吸！吸！”</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>吸尘器的广告文案：
+"吸尘器，吸走你的烦恼，吸走你的忧愁，吸走你的烦恼，吸走你的忧愁，吸走你的烦恼，吸走你的忧愁，吸走你的烦恼，吸走你的忧愁，吸走你的烦恼，吸走你的忧愁，吸走你的烦恼，吸走你的忧愁，吸走你的烦恼，吸走你的忧愁，吸走你的烦恼，吸走你的忧愁，吸走你的烦恼，吸走你的忧愁，吸走你的烦恼，吸走你的忧愁，吸走你的烦恼</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>请生成一个幽默诙谐的文案，具有吸引力和趣味性。</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>幽默诙谐的文案</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>您好，我已经看到了您的请求，但是我不确定您想要什么样的幽默诙谐的文案。如果您可以提供更多信息，我将尽力为您提供帮助。</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">好的，以下是一个幽默诙谐的文案，具有吸引力和趣味性：
+"生命就像一盒巧克力，你永远不知道下一个是什么。"
+                                                                                             </t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>为一款遮阳帽编写一段幽默诙谐的文案</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>这款遮阳帽非常适合在夏天使用。
+这款遮阳帽非常适合在夏天使用。
+这款遮阳帽非常适合在夏天使用。
+这款遮阳帽非常适合在夏天使用。
+这款遮阳帽非常适合在夏天使用。
+这款遮阳帽非常适合在夏天使用。
+这款遮阳帽非常适合在夏天使用。
+这款遮阳帽非常适合在夏天使用。
+这款遮阳帽非常适合在夏天使用。
+这款遮阳帽非常适合在夏天使用。
+这款遮阳帽非常适合在夏天使用。
+这款遮阳帽非常适合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>遮阳帽，顾名思义，是用来遮阳的。但是这款遮阳帽可不简单，它不仅能够遮阳，还能够在炎炎夏日里给你带来一丝凉爽和幽默感。
+这款遮阳帽采用了一种特殊的设计，使得它看起来就像一只戴着大草帽的小狗，充满了趣味和幽默感。无论你是在烈日下工作，还是在户外活动，这款遮阳帽都能够为你带来一份轻松和自在。
+另外，这款遮阳帽还采用了高品质的材料制造，使得它不仅耐用而且舒适。无论你是在高温环境下工作，</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">"戴上我们的遮阳帽，你就可以享受阳光，而不必担心被晒黑了！"
+                                                                                                         </t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>请为一款名为“摇滚猫”的手机游戏写一句幽默诙谐的文案。</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>摇滚猫是一款音乐手机游戏。
+摇滚猫是一款音乐手机游戏。
+摇滚猫是一款音乐手机游戏。
+摇滚猫是一款音乐手机游戏。
+摇滚猫是一款音乐手机游戏。
+摇滚猫是一款音乐手机游戏。
+摇滚猫是一款音乐手机游戏。
+摇滚猫是一款音乐手机游戏。
+摇滚猫是一款音乐手机游戏。
+摇滚猫是一款音乐手机游戏。
+摇滚猫是一款音乐手机游戏。
+摇滚猫是一款音乐手机游戏。
+摇滚猫是一款音乐手机游戏。
+摇滚猫是一款音乐手机游戏。
+摇滚猫是一款音乐手机游戏。
+摇滚猫是一款音乐手机游戏。</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>这款名为“摇滚猫”的手机游戏，让猫咪与摇滚音乐完美结合，让玩家在游戏中成为猫娘，感受猫咪与音乐的快乐。</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">在“摇滚猫”手机游戏中，你将扮演一只摇滚猫，用你的音乐才华征服世界！
+                                                                                                         </t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>受控生成</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>生成一个关于环保的10字句子，包含词汇：“节能、环境、减少”。</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>节约能源，减少污染。</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>节能减排，保护环境，减少污染。</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">节能环保，减少环境污染。
+                                                                                                                        </t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>{'task': 'generate_sentence', 'constraints': {'length': 10, 'words': ['apple', 'banana', 'fruit']}}</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>apple banana fruit</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Understood. I will generate a 10-word sentence using the specified keywords.</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Apple, banana, and fruit are all types of fruits.
+                                                                                                                 </t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>任务要求：生成一句关于环保的话，限制在10个单词以内。</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>保护环境，人人有责。</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>"Reduce, Reuse, Recycle."</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">保护地球，从我做起。
+                                                                                                                       </t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>生成一条关于太阳的推文，限制使用以下词汇：太阳、光芒、照耀、生命之源，且总字数不超过20字。</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>太阳的光芒照耀着地球上的生命之源。</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>太阳是生命的之源，它照耀着地球，给予我们温暖和光明。</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">太阳是生命之源，光芒照耀人间。
+                                                                                                                    </t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>{'任务要求': '生成一段描述猫的话，限制在15个单词以内，且需要包括以下词汇：fluffy、loyal、playful。', '文本类型': '描述性文本'}</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>cats are fluffy and playful</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>{
+'任务要求': '生成一段描述猫的话，限制在15个单词以内，且需要包括以下词汇：fluffy、loyal、playful。',
+'文本类型': '描述性文本'
+}
+{'任务要求': '生成一段描述猫的话，限制在15个单词以内，且需要包括以下词汇：fluffy、loyal、playful。', '文本类型': '描述性文本'
+}</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fluffy, loyal, and playful cat.
+                                                                                                                    </t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>长文档翻译</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>任务: 长文档翻译
+原文: This is an example of a longer document that needs to be translated while maintaining the meaning and logical structure of the original text. The document covers several topics, including the history, culture, and economy of a specific region. It is important that the translation is accurate and conveys the same information as the original text.
+目标语言: 中文</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>This is an example of a longer document that needs to be translated while maintaining the meaning and logical structure of the original text. The document covers several topics, including the history, culture, and economy of a specific region. It is important that the translation is accurate and conveys the same information as the original text.</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>非常感谢您提供这个需要翻译的长文档，我会尽力保持原文意义的准确性和逻辑结构，并确保翻译准确传达原文信息。我会尽快完成翻译并提交给您。</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">好的，我收到了。请提供需要翻译的原文和目标语言。
+                                                                                                               </t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>翻译以下长文档内容：
+随着科技的飞速发展，人工智能在众多领域中的应用逐渐普及。未来，人工智能技术将为社会创造更多的就业机会，提高生产效率，从而推进经济增长。然而，人工智能的快速发展也带来了许多挑战。一方面，有关人工智能安全性、隐私权以及道德问题的讨论也愈发激烈。另一方面，要想顺利实现人工智能的发展，需要培养更多的专业人才，提高公众的科学素养。总之，人工智能的发展将改变我们的生活方式，但我们需要克服众多挑战，共同创造一个美好的未来。</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>随着科技的飞速发展，人工智能在众多领域中的应用逐渐普及。未来，人工智能技术将为社会创造更多的就业机会，提高生产效率，从而推进经济增长。然而，人工智能的快速发展也带来了许多挑战。一方面，有关人工智能安全性、隐私权以及道德问题的讨论也愈发激烈。另一方面，要想顺利实现人工智能的发展，需要培养更多的专业人才，提高公众的科学素养。总之，人工智能的发展将改变我们的生活方式，但我们需要克服众多挑战，共同创造一个美好的未来。</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>随着科技的飞速发展，人工智能在各个领域中的应用逐渐普及。未来，人工智能技术将为社会创造更多的就业机会，提高生产效率，从而推进经济增长。
+然而，人工智能的快速发展也带来了许多挑战。一方面，有关人工智能安全性、隐私权以及道德问题的讨论也愈发激烈。另一方面，要想顺利实现人工智能的发展，需要培养更多的专业人才，提高公众的科学素养。
+总之，人工智能的发展将改变我们的生活方式，但我们需要克服众多挑战，共同创造一个美好的未来。</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">随着科技的飞速发展，人工智能在众多领域中的应用逐渐普及。未来，人工智能技术将为社会创造更多的就业机会，提高生产效率，从而推进经济增长。然而，人工智能的快速发展也带来了许多挑战。一方面，有关人工智能安全性、隐私权以及道德问题的讨论也愈发激烈。另一方面，要想顺利实现人工智能的发展，需要培养更多的专业人才，提高公众的科学素养。总之，人工智能的发展将改变我们的生活方式，但我们需要克服众多挑战，共同创造一个美好的未来。
+                      </t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>将以下英文文档翻译成中文：Climate change is a significant and lasting change in the statistical distribution of weather patterns over periods ranging from decades to millions of years. It may be a change in average weather conditions, or in the distribution of weather around the average conditions (i.e., more or fewer extreme weather events). Climate change is caused by factors that include oceanic processes (such as oceanic circulation), biotic processes (e.g., plants), variations in solar radiation received by Earth, plate tectonics and volcanic eruptions, and human-induced alterations of the natural world.</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Climate change is a significant and lasting change in the statistical distribution of weather patterns over periods ranging from decades to millions of years.</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>将以下英文文档翻译成中文：气候变化是一个显著而持久的变化，其范围从几十年到几百万年。它可能是平均天气状况的变化，或者平均条件周围的天气变化（即更多或更少的极端天气事件）。气候变化是由包括海洋过程（如海洋环流）、生物过程（例如植物）、太阳辐射地球接收到的变化、板块构造和火山喷发，以及人类对自然世界的改变等因素引起的。</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">气候变化是指在时间跨度从数十年到数百万年的范围内，天气模式统计分布的显著和持久性变化。它可能是平均天气条件的改变，或围绕平均条件的天气分布的改变（即极端天气事件的增加或减少）。气候变化是由多种因素引起的，包括海洋过程（如海洋循环）、生物过程（如植物）、地球接收到的太阳能量变化、板块构造和火山喷发，以及人类对自然世界的人为改变。
+                        </t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>任务: 长文档翻译。请将以下长篇英文文档翻译成中文，保持原文意义和逻辑结构。原文：Climate change is a major global challenge that poses significant risks to the environment, human health, and economic stability. Over the past century, human activities such as the burning of fossil fuels, deforestation, and industrial processes have contributed to a rapid increase in greenhouse gas emissions, leading to a warming of the Earth"s atmosphere. The consequences of this warming are widespread and include rising sea levels, more frequent and severe weather events, and disruptions to ecosystems and agriculture. In order to mitigate these impacts, governments, businesses, and individuals must work together to reduce greenhouse gas emissions and adapt to the changing climate. Possible solutions include transitioning to renewable energy sources, improving energy efficiency, and implementing policies that promote sustainable land use and resource management.</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>请将以下长篇英文文档翻译成中文，保持原文意义和逻辑结构。</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>为了应对气候变化这一全球性的挑战，我们需要采取行动来减少温室气体排放并适应气候变化。为此，政府、企业和个人需要共同努力，采取措施来减少温室气体排放，包括转向可再生能源，提高能源效率，以及实施可持续土地利用和资源管理政策。这些措施将有助于减缓气候变化的影响，并为我们的未来做出贡献。</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>气候变化是一个全球性挑战，对环境、人类健康和经济稳定构成重大风险。在过去的一百年中，人类活动如化石燃料燃烧、森林砍伐和工业过程的贡献导致温室气体排放的快速增加，导致地球大气层的变暖。这种变暖的后果是广泛的，包括海平面上升、更频繁和严重的天气事件以及生态系统和农业的破坏。为了减轻这些影响，政府、企业和个人必须共同努力减少温室气体排放并适应气候变化。可能的解决方案包括转向可再生能源、提高能源效率和实施促进可持续土地使用和资源</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>任务: 请翻译以下长篇英文文档为中文，并保持原文意义和逻辑结构。 英文文档: In the early days of the internet, the primary means of communication was through email. People from all over the world could send messages to one another instantly, without the need for postage stamps or envelopes. As technology advanced, new methods of communication emerged, such as instant messaging and social media platforms. These tools allowed people to connect and share information more quickly and easily than ever before.</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>翻译以下长篇英文文档为中文，并保持原文意义和逻辑结构。</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>在互联网的早期阶段，主要的通信方式是电子邮件。来自世界各地的人们可以立即互相发送消息，无需邮票或信封。随着技术的发展，出现了新的通信方式，如即时通讯和社交媒体平台。这些工具使人们能够更快速、更轻松地连接和分享信息。</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">在互联网的早期阶段，人们主要通过电子邮件进行沟通。无论身处何地，人们都可以瞬间互相发送信息，无需邮票或信封。随着技术的进步，新的沟通方式也随之出现，如即时消息和社交媒体平台。这些工具使得人们能够更快速、更轻松地相互联系和分享信息。
+                                                         </t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>角色扮演</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>任务要求：你是一位心理医生，请帮助这位患者解决跟家庭成员的沟通问题。患者：我最近跟我的家人沟通不畅，感觉他们总是不理解我，也不愿意听我说话，我该怎么办？</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>建议患者：
+建议患者：
+建议患者：
+建议患者：
+建议患者：
+建议患者：
+建议患者：
+建议患者：
+建议患者：
+建议患者：
+建议患者：
+建议患者：
+建议患者：
+建议患者：
+建议患者：
+建议患者：
+建议患者：
+建议患者：
+建议患者：
+建议患者：
+建议患者：
+建议患者：
+建议患者：
+建议患者：
+建议患者：
+建议患者：
+建议患者：
+建议患者：
+建议患者：
+建议患者：
+建议患者：
+建议患者：</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>作为心理医生，我完全理解您的问题。家庭沟通是家庭幸福的重要组成部分。以下是一些建议，希望能够帮助您改善与家人的沟通：
+1. 明确自己的需求：首先，您需要明确自己想要跟家人沟通的内容，以及期望达到的结果。这可以帮助您更好地表达自己，也让家人更好地理解您。
+2. 寻找良好的沟通方式：选择适当的时间、地点和方式进行沟通是非常重要的。例如，选择一个安静的环境，关掉手机等干扰因素，以便更加专注地交流。
+3. 表达自己的感受：在沟通中，表达自己的感受是非常重要的。如果您</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">作为一名心理医生，我可以提供以下建议：
+1. 倾听并理解：让患者知道你正在倾听他的感受，并理解他的处境。
+2. 沟通技巧：教患者一些有效的沟通技巧，如积极倾听、表达清晰、避免指责和攻击等。
+3. 建立信任：让患者知道你关心他，并愿意为他提供帮助。
+4. 寻求支持：鼓励患者寻求家人或朋友的支持和理解。
+5. 寻求专业帮助：如果患者的沟通问题持续严重，可以考虑寻求专业心理咨询师的帮助。
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>任务要求：你是一位医生，有一个患者向你咨询感冒症状的治疗方法。用户输入：医生，我感觉最近我似乎得了感冒，喉咙痛、流鼻涕，请问有什么治疗方法吗？</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>问：医生，我感觉最近我似乎得了感冒，喉咙痛、流鼻涕，请问有什么治疗方法吗？</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>非常抱歉，作为一名医生，我无法直接与您进行交流。但是，我可以给您一些建议来缓解感冒症状。首先，确保多休息，保持充足的睡眠，这有助于增强免疫系统。其次，多喝水，这有助于稀释黏液和减轻喉咙疼痛。此外，您可以尝试服用非处方药，如退烧药和止痛药，但请务必按照说明服用。最后，如果症状严重或持续时间较长，建议您咨询专业医生。</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">您好，感冒是一种常见的病毒感染，主要症状包括喉咙痛、流鼻涕、打喷嚏等。治疗感冒的常用方法包括休息、饮食调理、药物治疗等。针对您的症状，建议您多喝水、饮食清淡、避免辛辣刺激性食物，同时可以口服清热解毒的中药，如利咽解毒冲剂等。如果症状持续严重，可以就医咨询专业医生。
+                                     </t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>任务要求：你是一位医生，用户是一位患者，患者向你咨询有关感冒症状和治疗方法，请给予合适的建议。用户：医生，我最近感觉鼻塞、流鼻涕，有时候还伴有喉咙痛和咳嗽，请问我该怎么办？</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>用户：医生，我最近感觉鼻塞、流鼻涕，有时候还伴有喉咙痛和咳嗽，请问我该怎么办？</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>作为一位医生，鼻塞、流鼻涕，有时候还伴有喉咙痛和咳嗽，可能是感冒的症状。这是一种由病毒引起的呼吸道疾病，通常会导致鼻塞、流鼻涕、喉咙痛和咳嗽等症状。
+建议采取以下措施来缓解症状：
+1. 多喝水：保持充足的水分有助于稀释黏液和减轻喉咙疼痛。
+2. 使用盐水漱口：使用盐水漱口可以减轻喉咙疼痛和缓解鼻塞。
+3. 休息：充足的休息有助于身体恢复和减轻症状。
+4. 服用药物：根据症状和医生的建议，可以考虑</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">您好，这些症状可能是感冒的症状。建议您多喝水，休息好，可以口服退烧药和止咳药缓解症状。如果症状持续严重，可以就医咨询专业医生。
+                                                                                     </t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>任务:扮演一个心理咨询师，回答用户的问题。用户: 我最近总是感到焦虑，失眠，该如何缓解？</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>用户: 我最近总是感到焦虑，失眠，该如何缓解？
+用户: 我最近总是感到焦虑，失眠，该如何缓解？
+用户: 我最近总是感到焦虑，失眠，该如何缓解？
+用户: 我最近总是感到焦虑，失眠，该如何缓解？
+用户: 我最近总是感到焦虑，失眠，该如何缓解？
+用户: 我最近总是感到焦虑，失眠，该如何缓解？
+用户: 我最近总是感到焦虑，失眠，该如何缓解？
+用户: 我最近总是感到焦虑，失眠，该如何缓解？
+用户: 我最近总是感到焦虑，</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>非常感谢您向我寻求帮助。让我来谈谈一些可能有助于缓解您焦虑和失眠的方法。
+首先，建议您尝试进行一些放松练习，如深呼吸、渐进性肌肉松弛或冥想。这些练习可以帮助您放松身体和思维，减轻焦虑和失眠。
+其次，您可以尝试保持规律的睡眠时间，每天晚上大约在同一时间上床，并尽量在同一时间起床。这有助于您的身体建立规律的生物钟，使您更容易入睡和保持清醒。
+此外，您可以尝试避免在晚上饮用咖啡、茶或含有咖啡因的饮料。这些饮料可能会导致</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">作为一个心理咨询师，我会建议您采取以下措施来缓解焦虑和失眠：
+1. 保持良好的睡眠习惯，每晚保证7-8小时的睡眠时间。
+2. 练习放松技巧，如深呼吸、冥想、瑜伽等，有助于放松身心。
+3. 避免在睡前使用电子设备，保持安静和黑暗的环境。
+4. 如果症状持续严重，可以考虑就医咨询专业医生。
+请记住，缓解焦虑和失眠需要时间和耐心，不要急于求成。
+                   </t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>任务要求：扮演一位医生，根据用户描述的症状提供建议。用户：我最近总是喉咙痛、咳嗽，怎么办呢？</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>扮演一位医生，根据用户描述的症状提供建议。用户：我最近总是喉咙痛、咳嗽，怎么办呢？</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>非常抱歉听到您的这些症状。喉咙痛和咳嗽可能是由许多不同的原因引起的，因此需要进行一些评估以确定确切的原因。建议您尽快咨询医生，以便进行详细的评估和适当的治疗。在此期间，您可以尝试使用盐水漱口、保持室内湿度、避免吸烟和饮酒等方法来缓解症状。</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">作为一名医生，我建议您尽快就医。喉咙痛和咳嗽是许多疾病的症状，包括感冒、流感、支气管炎等。如果您的症状持续严重或持续时间过长，建议您尽快就医，以便进行进一步检查和治疗。
+                                                                       </t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>长摘要生成</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>任务要求：基于长篇幅原文生成一个详细的摘要，概括内容和主要论点。
+原文：随着科技的进步以及人们对健康的关注度的提高，健康追踪设备的普及已成为一种趋势。健康追踪设备主要有两种类型：可穿戴设备和移动应用程序。这些设备可以记录用户的日常活动、运动、饮食、睡眠等方面的数据，以便用户能了解自己的健康状况，采取合适的措施来改善。不过，这些设备也存在一定的问题。一是隐私问题，很多设备将数据存储在云端，容易泄露个人信息。二是准确性问题，很多设备的数据测量并不准确。三是依赖性问题，过度依赖这些设备可能导致用户忽视自己的身体感觉。本文建议用户在使用健康追踪设备时，要合理使用，注意保护自己的隐私，不要过分依赖这些设备。</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>本文建议用户在使用健康追踪设备时，要合理使用，注意保护自己的隐私，不要过分依赖这些设备。</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>基于长篇幅原文生成一个详细的摘要，概括内容和主要论点。
+随着科技的进步以及人们对健康的关注度的提高，健康追踪设备的普及已成为一种趋势。健康追踪设备主要有两种类型：可穿戴设备和移动应用程序。这些设备可以记录用户的日常活动、运动、饮食、睡眠等方面的数据，以便用户能了解自己的健康状况，采取合适的措施来改善。不过，这些设备也存在一定的问题。一是隐私问题，很多设备将数据存储在云端，容易泄露个人信息。二是准确性问题，很多设备的数据测量并不准确。三是依赖性问题，过度依赖这些设备可能导致用户忽视自己的身体感觉</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>随着科技的进步和人们对健康的关注度的提高，健康追踪设备的普及已成为一种趋势。健康追踪设备主要有两种类型：可穿戴设备和移动应用程序。这些设备可以记录用户的日常活动、运动、饮食、睡眠等方面的数据，以便用户能了解自己的健康状况，采取合适的措施来改善。不过，这些设备也存在一定的问题。一是隐私问题，很多设备将数据存储在云端，容易泄露个人信息。二是准确性问题，很多设备的数据测量并不准确。三是依赖性问题，过度依赖这些设备可能导致用户忽视自己的身体感觉。因此，用户</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>任务要求：请对以下长篇幅原文生成一个详细的摘要，概括内容和主要论点。
+在21世纪初的互联网行业中，有两家公司一直争夺市场份额和用户忠诚度，这两家公司就是谷歌和百度。谷歌是美国的一家跨国公司，而百度则是中国的互联网巨头。这两家公司在搜索引擎、在线广告和人工智能等领域展开激烈竞争。尽管市场份额和用户基数相差悬殊，但两者仍在各自的领域内取得了令人瞩目的成就。
+谷歌成立于1998年，由拉里·佩奇和谢尔盖·布林两位斯坦福大学博士生创建。谷歌的最初成功来自于其搜索引擎，通过PageRank算法，为用户提供了高质量、相关性强的搜索结果。百度成立于2000年，由李彦宏创立，是全球最大的中文搜索引擎。百度的搜索服务覆盖了新闻、图片、音乐、视频等多种形式的内容。
+两家公司在搜索引擎方面的竞争尤为激烈。谷歌凭借其用户友好的界面和高度相关的搜索结果赢得了全球大部分市场份额。然而，在中国市场，百度占据了主导地位。尽管谷歌试图进入中国市场并与百度竞争，但最终在2010年退出中国市场，原因包括言论审查和网络攻击等方面的问题。
+除搜索引擎外，两家公司还在在线广告、移动应用、云计算、人工智能等领域展开竞争。谷歌和百度都在努力开拓这些新兴市场，为用户提供创新的产品和服务。</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>在21世纪初的互联网行业中，有两家公司一直争夺市场份额和用户忠诚度，这两家公司就是谷歌和百度。谷歌是美国的一家跨国公司，而百度则是中国的互联网巨头。这两家公司在搜索引擎、在线广告和人工智能等领域展开激烈竞争。尽管市场份额和用户基数相差悬殊，但两者仍在各自的领域内取得了令人瞩目的成就。</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>摘要：
+在21世纪初的互联网行业中，谷歌和百度是两家争夺市场份额和用户忠诚度的公司。谷歌是一家美国的跨国公司，而百度则是中国的互联网巨头。两家公司在搜索引擎、在线广告和人工智能等领域展开激烈竞争。尽管市场份额和用户基数相差悬殊，但两者仍在各自的领域内取得了令人瞩目的成就。
+谷歌成立于1998年，由拉里·佩奇和谢尔盖·布林两位斯坦福大学博士生创建。谷歌的最初成功来自于其搜索引擎，通过PageRank算法，为用户提供了高质量、相关性强的搜索结果。</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>谷歌和百度是两家在搜索引擎、在线广告、移动应用、云计算、人工智能等领域展开激烈竞争的公司。谷歌成立于1998年，由拉里·佩奇和谢尔盖·布林两位斯坦福大学博士生创建。谷歌的最初成功来自于其搜索引擎，通过PageRank算法，为用户提供了高质量、相关性强的搜索结果。百度成立于2000年，由李彦宏创立，是全球最大的中文搜索引擎。百度的搜索服务覆盖了新闻、图片、音乐、视频等多种形式的内容。
+两家公司在搜索引擎方面的竞争尤为激烈。谷歌凭借其用户友好的</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>任务: 长摘要生成。请基于以下长篇原文生成一个详细的摘要，概括内容和主要论点。原文: 人工智能（AI）是当今科技领域最热门的话题之一。它具有广泛的应用，从搜索引擎、在线广告到自动驾驶汽车和虚拟助手。然而，尽管人工智能已经取得了很多显著的成功，但仍然面临着一些关键的挑战。这些挑战包括：1. 数据收集：AI系统需要大量的数据进行训练。而收集这些数据涉及到隐私和安全问题。2. 计算能力：处理大量数据需要强大的计算能力。尽管硬件性能已经取得了很大的进步，但是为了满足日益增长的需求，仍需在计算能力上取得更多突破。3. 可解释性：AI系统的决策过程往往难以解释，这给行业法规和政策制定带来了挑战。4. 安全性：随着AI系统的广泛应用，保证其安全性变得越来越重要。5. 伦理问题：AI的发展引发了一系列伦理问题，如偏见和歧视。未来，人工智能研究需要关注这些挑战，以便实现更广泛、更深入的应用。</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>长摘要生成</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>摘要：
+本文讨论了人工智能（AI）面临的挑战。尽管AI已经取得了很多显著的成功，但仍然面临着一些关键的挑战。这些挑战包括数据收集、计算能力、可解释性、安全性和伦理问题。在数据收集方面，AI系统需要大量的数据进行训练，但收集这些数据涉及到隐私和安全问题。在计算能力方面，处理大量数据需要强大的计算能力，尽管硬件性能已经取得了很大的进步，但是为了满足日益增长的需求，仍需在计算能力上取得更多突破。在可解释性方面，AI系统的决策过程往往难以解释，这给行业法规和</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">人工智能是当今科技领域最热门的话题之一，广泛应用于搜索引擎、在线广告、自动驾驶汽车和虚拟助手等领域。然而，尽管人工智能已经取得了很多显著的成功，但仍然面临着一些关键的挑战。这些挑战包括数据收集、计算能力、可解释性、安全性和伦理问题等。为了实现更广泛、更深入的应用，人工智能研究需要关注这些挑战，并采取相应的措施来解决它们。
+                                      </t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>任务要求：请根据以下长篇幅原文生成一个详细的摘要，概括内容和主要论点。
+原文：随着科技的飞速发展，人工智能在多个领域取得了显著的进步。在医学领域，图像识别技术已经可以辅助医生诊断疾病，大大提高了诊断的准确性和速度。然而，这一进步也引发了一系列的道德和伦理问题。一些人担忧，医生过度依赖技术，导致人类的专业技能和判断力被削弱。此外，隐私和数据安全问题也让人们对人工智能在医学领域的应用感到担忧。尽管如此，绝大多数专家仍然认为，人工智能在医学领域具有巨大的潜力，可以提高病人的生活质量。对于未来的发展趋势，有一部分人认为，人工智能将会取代医生，而另一部分人则认为，人工智能将与医生共同协作，以提高治疗效果。</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>随着科技的飞速发展，人工智能在多个领域取得了显著的进步。在医学领域，图像识别技术已经可以辅助医生诊断疾病，大大提高了诊断的准确性和速度。然而，这一进步也引发了一系列的道德和伦理问题。一些人担忧，医生过度依赖技术，导致人类的专业技能和判断力被削弱。此外，隐私和数据安全问题也让人们对人工智能在医学领域的应用感到担忧。尽管如此，绝大多数专家仍然认为，人工智能在医学领域具有巨大的潜力，可以提高病人的生活质量。对于未来的发展趋势，有一部分人认为，人工智能将会取代医生，而另一部分人则认为，</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>摘要：本文讨论了人工智能在医学领域取得的显著进步及其引发的道德和伦理问题。虽然有人担忧医生过度依赖技术会导致人类专业技能和判断力被削弱，但绝大多数专家仍然认为人工智能在医学领域具有巨大的潜力，可以提高病人的生活质量。对于未来的发展趋势，有人认为人工智能将会取代医生，有人则认为人工智能将与医生共同协作，以提高治疗效果。</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>随着科技的飞速发展，人工智能在多个领域取得了显著的进步。在医学领域，图像识别技术已经可以辅助医生诊断疾病，大大提高了诊断的准确性和速度。然而，这一进步也引发了一系列的道德和伦理问题。一些人担忧，医生过度依赖技术，导致人类的专业技能和判断力被削弱。此外，隐私和数据安全问题也让人们对人工智能在医学领域的应用感到担忧。尽管如此，绝大多数专家仍然认为，人工智能在医学领域具有巨大的潜力，可以提高病人的生活质量。对于未来的发展趋势，有一部分人认为，人工智能将会取代医生，而另一</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>任务要求：请为以下长篇幅原文生成一个详细的摘要，概括内容和主要论点。 原文：随着科技的发展，人工智能在各个领域的应用越来越广泛。在金融领域，人工智能技术的应用已经从简单的数据分析、客户服务扩展到风险管理、智能投顾等多个方面。另一方面，人工智能的发展也给金融领域带来了一定的挑战，如数据安全和隐私保护等问题。因此，金融机构需要在采用人工智能技术的同时，加强对相关风险的管理。在教育领域，人工智能技术的应用已经从在线教育、个性化学习扩展到虚拟助教、智能测评等多个方面。这些应用在提高教育质量和效率的同时，也为教育公平和资源优化提供了新的思路。然而，人工智能在教育领域的发展也需要关注相关的伦理和道德问题，如对教师职业的影响、学生隐私保护等。综上所述，人工智能技术在不同领域的应用不仅带来了便利，也带来了挑战。因此，我们需要在推动人工智能技术的发展和应用的同时，关注其中涉及的各种问题，以实现科技与社会的共同发展。</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>随着科技的发展，人工智能在各个领域的应用越来越广泛。在金融领域，人工智能技术的应用已经从简单的数据分析、客户服务扩展到风险管理、智能投顾等多个方面。另一方面，人工智能的发展也给金融领域带来了一定的挑战，如数据安全和隐私保护等问题。因此，金融机构需要在采用人工智能技术的同时，加强对相关风险的管理。在教育领域，人工智能技术的应用已经从在线教育、个性化学习扩展到虚拟助教、智能测评等多个方面。这些应用在提高教育质量和效率的同时，也为教育公平和资源优化提供了新的思路。然而，人工智能在教育领域的发展也需要</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>摘要:
+随着科技的发展，人工智能在各个领域的应用越来越广泛。在金融领域，人工智能技术的应用已经从简单的数据分析、客户服务扩展到风险管理、智能投顾等多个方面。另一方面，人工智能的发展也给金融领域带来了一定的挑战，如数据安全和隐私保护等问题。因此，金融机构需要在采用人工智能技术的同时，加强对相关风险的管理。在教育领域，人工智能技术的应用已经从在线教育、个性化学习扩展到虚拟助教、智能测评等多个方面。这些应用在提高教育质量和效率的同时，也为教育公平和资源优化提供了新的思路。然而，人工智能在教育领域的发展也需要关注相关的</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>随着科技的发展，人工智能在各个领域的应用越来越广泛。在金融领域，人工智能技术的应用已经从简单的数据分析、客户服务扩展到风险管理、智能投顾等多个方面。另一方面，人工智能的发展也给金融领域带来了一定的挑战，如数据安全和隐私保护等问题。因此，金融机构需要在采用人工智能技术的同时，加强对相关风险的管理。在教育领域，人工智能技术的应用已经从在线教育、个性化学习扩展到虚拟助教、智能测评等多个方面。这些应用在提高教育质量和效率的同时，也为教育公平和资源优化提供了新的思路。然而，</t>
         </is>
       </c>
     </row>

--- a/output-latest.xlsx
+++ b/output-latest.xlsx
@@ -1672,6 +1672,11 @@
                                                                                               </t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>量子纠缠是一种量子力学现象，当两个或多个物体的量子状态需要相互关联来描述时，即使这些物体在空间上相隔很远，也会出现这种现象。</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="B43" t="inlineStr">
@@ -1696,6 +1701,11 @@
                                                                                                             </t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>患者被诊断为糖尿病，并接受了胰岛素治疗。</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="B44" t="inlineStr">
@@ -1719,6 +1729,11 @@
                                                                                             </t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>人工智能(AI)是指在机器中模拟人类智能，使其能够像人类一样思考和模仿人类行为。这个术语也可以应用于任何表现出与人类思维相关特征的机器，例如学习和解决问题。</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="B45" t="inlineStr">
@@ -1743,6 +1758,11 @@
                                                                                                              </t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>人工智能的发展给医疗、金融和制造业等多个行业带来了重大变革。</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="B46" t="inlineStr">
@@ -1764,6 +1784,12 @@
         <is>
           <t xml:space="preserve">下一代无线通信系统，即5G，将极大地改变我们使用技术的方式。它将使数据传输速度更快，连接性更好，并提高网络效率。
                                                                                             </t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>任务: 将以下科技领域的英文文本翻译成中文。输入: The next generation wireless communication systems, known as 5G, will be a major shift in the way we use technology. It will enable faster data transfer speeds, better connectivity, and improved network efficiency.
+### 任务: 将以下科技领域的英文文本翻译成中文。输入: The next generation wireless communication systems, known as 5G, will be a major shift in the way we use technology. It will enable faster data transfer speeds, better connectivity, and improved network efficiency.</t>
         </is>
       </c>
     </row>
@@ -1799,6 +1825,15 @@
                  </t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>🏃‍♂️🏃‍♀️ "跃动未来，从脚下开始！" 🚀
+这款专为运动狂热者打造的全新运动鞋品牌，将为您带来前所未有的舒适与激情！👟👟
+无论是跑步、跳跃还是疾驰，我们的运动鞋都能让您感受到脚下生风的快感！🏃‍♂️🏃‍♀️
+采用最先进的科技材料，结合人体工程学设计，我们的运动鞋为您提供最佳的支撑与保护。💪💪
+不仅如此，我们的运动鞋还具有独特的时尚外观，让</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="B48" t="inlineStr">
@@ -1823,6 +1858,17 @@
                                                                                       </t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>🌟🌟🌟 新品发布 🌟🌟🌟
+亲爱的瑜伽爱好者们，
+我们非常激动地向您介绍一款全新的瑜伽垫——"瑜悦"！🌟
+瑜悦瑜伽垫，专为瑜伽爱好者打造，让您的瑜伽练习更加舒适、安全、愉悦。🌟
+🌟 瑜悦特点 🌟
+1️⃣ 高品质PVC材质：瑜悦瑜伽垫采用优质PVC材料，环保无味，耐磨耐用，为您的瑜伽练习提供持久保障。
+2️⃣ 防滑设计：独特的防滑纹理，让</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="B49" t="inlineStr">
@@ -1844,6 +1890,11 @@
         <is>
           <t xml:space="preserve">夏日限定的清凉美味冰淇淋，让您在炎热的夏日里尽情享受清凉与美味的完美结合！
                                                                                                    </t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>在这个炎炎夏日，让我们一起品尝这款清凉美味的夏日限定冰淇淋，让你的味蕾在冰爽的甜蜜中感受到无尽的清凉！</t>
         </is>
       </c>
     </row>
@@ -1906,6 +1957,15 @@
                                                                     </t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>🌟🌟🌟 "星空之旅" 🌟🌟🌟
+🌌 探索宇宙的奥秘，感受星空的魅力！🌌
+🌟 "星空之旅" 是一场为您精心打造的夜间观星旅游活动，带您远离城市的喧嚣，沉浸在大自然的宁静之中。🌟
+🌌 在这里，您将有机会欣赏到壮观的星空美景，感受宇宙的浩瀚无垠。🌌
+🌌 我们的专业导游将为您讲解星空知识，让您了解星空的奥秘，满足您对宇宙的好奇心。🌌</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="B51" t="inlineStr">
@@ -1929,6 +1989,11 @@
                                                                                                             </t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>让我们一起使用环保水瓶，为地球献出一份爱心。这款水瓶不仅时尚美观，还能帮助我们减少一次性塑料瓶的使用，让我们的生活更加绿色环保。快来加入我们，一起为地球的未来努力吧！</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1955,6 +2020,11 @@
         <is>
           <t xml:space="preserve">尊敬的先生或女士，我们收到了您的来信，并对您的支持表示感谢。我们会尽快处理您的问题并尽力解决。
                                                                                                   </t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>亲爱的，我们收到了你的来信，非常感谢你的支持！我们会尽快处理你的问题，尽量帮你解决。</t>
         </is>
       </c>
     </row>
@@ -1982,6 +2052,11 @@
                                                                                                            </t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>亲爱的领导，您好！非常高兴地告诉您，我们的项目已经顺利完成了！</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="B54" t="inlineStr">
@@ -2003,6 +2078,11 @@
         <is>
           <t xml:space="preserve">在本次会议上，我们将讨论公司未来发展的战略规划，以确保我们在这个竞争激烈的市场中取得成功。
                                                                                                       </t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>哎呀，这次会议上我们要聊聊公司未来的发展大计，得确保我们在这竞争激烈的市场里混得开。</t>
         </is>
       </c>
     </row>
@@ -2030,6 +2110,11 @@
                                                                                                               </t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>在我们开发软件的过程中，为了确保产品的质量和稳定性，我们需要对代码进行检查。</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="B56" t="inlineStr">
@@ -2051,6 +2136,11 @@
         <is>
           <t xml:space="preserve">由于天气太糟糕了，我们只能取消原定的户外活动。
                                                                                                                 </t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>哎呀，因为天气太糟糕了，我们不得不把原定的户外活动给取消了。</t>
         </is>
       </c>
     </row>
@@ -2090,6 +2180,14 @@
 购买我们的</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>亲爱的顾客们，让我为您介绍这款独一无二的创意杯子——“笑口常开”！
+想象一下，每当你拿起这个杯子，它都会让你忍不住笑出声来。这可不是普通的杯子，它拥有神奇的魔力，能让你的心情瞬间变好，让你的每一天都充满欢笑。
+这款杯子采用高品质的不锈钢材质，保证了它的耐用性和安全性。而且，它的外观设计独特，色彩鲜艳，让你在喝水的同时，也能感受到它的魅力。
+别犹豫了，赶快把这款“</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="B58" t="inlineStr">
@@ -2112,6 +2210,11 @@
         <is>
           <t>吸尘器的广告文案：
 "吸尘器，吸走你的烦恼，吸走你的忧愁，吸走你的烦恼，吸走你的忧愁，吸走你的烦恼，吸走你的忧愁，吸走你的烦恼，吸走你的忧愁，吸走你的烦恼，吸走你的忧愁，吸走你的烦恼，吸走你的忧愁，吸走你的烦恼，吸走你的忧愁，吸走你的烦恼，吸走你的忧愁，吸走你的烦恼，吸走你的忧愁，吸走你的烦恼，吸走你的忧愁，吸走你的烦恼</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>让您的家尘土飞扬，还是让我们的吸尘器让它变得一尘不染？选择我们的吸尘器，让您的家焕然一新！一机在手，家务无忧！赶快行动，让我们的吸尘器成为您家居生活的最佳拍档！</t>
         </is>
       </c>
     </row>
@@ -2136,6 +2239,13 @@
           <t xml:space="preserve">好的，以下是一个幽默诙谐的文案，具有吸引力和趣味性：
 "生命就像一盒巧克力，你永远不知道下一个是什么。"
                                                                                              </t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>大家好，我是一只来自外太空的搞笑外星人！今天我要给大家带来一段幽默诙谐的文案，让你们在忙碌的生活中找到片刻的欢乐。
+想象一下，有一天，地球上的动物们齐聚一堂，举行了一场盛大的联欢晚会。这场晚会的主题是“谁是地球上最搞笑的动物”。当然，作为一只外星人，我也有幸参加了这场盛会。
+晚会上，各种动物纷纷展示了自己的搞笑才艺。首先，一只猴子表演了一段模仿秀，它模仿了一只猫的叫</t>
         </is>
       </c>
     </row>
@@ -2172,6 +2282,11 @@
         <is>
           <t xml:space="preserve">"戴上我们的遮阳帽，你就可以享受阳光，而不必担心被晒黑了！"
                                                                                                          </t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>阳光明媚的日子里，你需要一顶遮阳帽为你遮风挡雨。我们的遮阳帽不仅能保护你的头顶，还能让你在人群中脱颖而出。快来选购我们的遮阳帽，让你的生活更加精彩！</t>
         </is>
       </c>
     </row>
@@ -2212,6 +2327,11 @@
                                                                                                          </t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>快来加入“摇滚猫”的世界，让我们一起摇摆、跳跃，成为最炫酷的猫咪摇滚明星！</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2240,6 +2360,11 @@
                                                                                                                         </t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>节能环境，减少污染。</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="B63" t="inlineStr">
@@ -2263,6 +2388,11 @@
                                                                                                                  </t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>{'sentence': 'The apple and banana are both types of delicious fruit.'}</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="B64" t="inlineStr">
@@ -2286,6 +2416,11 @@
                                                                                                                        </t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>保护环境，人人有责。</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="B65" t="inlineStr">
@@ -2307,6 +2442,11 @@
         <is>
           <t xml:space="preserve">太阳是生命之源，光芒照耀人间。
                                                                                                                     </t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>太阳照耀着生命之源，散发着无尽的光芒。</t>
         </is>
       </c>
     </row>
@@ -2337,6 +2477,11 @@
                                                                                                                     </t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>{'生成的文本': '猫是fluffy、loyal且playful的动物。'}</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2367,6 +2512,11 @@
                                                                                                                </t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>这是一个需要保持原文意义和逻辑结构的长文档翻译示例。该文档涵盖了几个主题，包括特定地区的历史、文化和经济。重要的是，翻译要准确无误，并传达与原文相同的信息。</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="B68" t="inlineStr">
@@ -2393,6 +2543,11 @@
                       </t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>With the rapid development of technology, the application of artificial intelligence in various fields is gradually popularized. In the future, artificial intelligence technology will create more job opportunities for society, improve production efficiency, and promote economic growth. However, the rapid development of artificial intelligence also brings many challenges. On the one hand, the discussion on the safety, privacy, and morality of artificial intelligence is becoming increasingly heated. On the other hand, to achieve the smooth development of artificial intelligence, it is necessary to cultivate more professional talents and</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="B69" t="inlineStr">
@@ -2416,6 +2571,11 @@
                         </t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>气候变化是天气模式统计分布的显著和持久变化，这些变化跨越了从几十年到数百万年的时间范围。气候变化可能表现为平均天气条件的变化，或者围绕平均条件(即更多或更少的极端天气事件)的天气分布的变化。气候变化是由包括海洋过程(如海洋环流)、生物过程(如植物)、地球接收到的太阳辐射的变化、板块构造和火山喷发，以及对自然世界的自然过程的人为干扰等因素引起的。</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="B70" t="inlineStr">
@@ -2438,6 +2598,11 @@
           <t>气候变化是一个全球性挑战，对环境、人类健康和经济稳定构成重大风险。在过去的一百年中，人类活动如化石燃料燃烧、森林砍伐和工业过程的贡献导致温室气体排放的快速增加，导致地球大气层的变暖。这种变暖的后果是广泛的，包括海平面上升、更频繁和严重的天气事件以及生态系统和农业的破坏。为了减轻这些影响，政府、企业和个人必须共同努力减少温室气体排放并适应气候变化。可能的解决方案包括转向可再生能源、提高能源效率和实施促进可持续土地使用和资源</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>气候变化是全球面临的主要挑战，对环境、人类健康和经济稳定带来了巨大风险。在过去的一个世纪里，人类活动如燃烧化石燃料、砍伐森林和工业进程等导致温室气体排放迅速增加，从而导致地球大气层的变暖。这种变暖的影响是广泛的，包括海平面上升、更频繁和严重的天气事件、生态系统和农业的破坏。为了减轻这些影响，政府、企业和个人必须共同努力减少温室气体排放并适应变化的气候。可能的解决方案包括转向可再生能源、提高能源效率和实施促进可持续土地使用和</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="B71" t="inlineStr">
@@ -2459,6 +2624,11 @@
         <is>
           <t xml:space="preserve">在互联网的早期阶段，人们主要通过电子邮件进行沟通。无论身处何地，人们都可以瞬间互相发送信息，无需邮票或信封。随着技术的进步，新的沟通方式也随之出现，如即时消息和社交媒体平台。这些工具使得人们能够更快速、更轻松地相互联系和分享信息。
                                                          </t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>在互联网的早期阶段，人们主要通过电子邮件进行交流。来自世界各地的人们可以相互发送信息，而无需邮票或信封。随着技术的进步，出现了新的交流方式，如即时通讯和社交媒体平台。这些工具使人们能够比以往任何时候都更快、更容易地建立联系和分享信息。</t>
         </is>
       </c>
     </row>
@@ -2528,6 +2698,13 @@
  </t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>亲爱的患者，面对家庭沟通问题，我非常理解您的困扰。以下是一些建议，希望能帮助您改善与家人的沟通：
+1. 倾听：首先，您需要做的是倾听家人的观点和感受。当他们表达自己的想法时，给予充分的关注，不要打断他们。这样可以让家人感受到您的关心和尊重。
+2. 表达自己：在倾听家人的观点后，尝试表达自己的感受和需求。用“我”开头的句子，如“我觉得......”或“我需要......”</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="B73" t="inlineStr">
@@ -2549,6 +2726,16 @@
         <is>
           <t xml:space="preserve">您好，感冒是一种常见的病毒感染，主要症状包括喉咙痛、流鼻涕、打喷嚏等。治疗感冒的常用方法包括休息、饮食调理、药物治疗等。针对您的症状，建议您多喝水、饮食清淡、避免辛辣刺激性食物，同时可以口服清热解毒的中药，如利咽解毒冲剂等。如果症状持续严重，可以就医咨询专业医生。
                                      </t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>患者：医生，我感觉最近我似乎得了感冒，喉咙痛、流鼻涕，请问有什么治疗方法吗？
+医生：您好，根据您的描述，您可能是感冒了。这里有一些建议来缓解您的症状：
+1. 多休息：感冒期间，您的身体需要更多的休息来恢复。
+2. 多喝水：保持充足的水分摄入有助于缓解喉咙痛和流鼻涕。
+3. 使用喉咙喷雾或含片：这些产品可以帮助缓解喉咙痛。
+4. 使用鼻腔喷雾或鼻腔冲洗：这些产品</t>
         </is>
       </c>
     </row>
@@ -2577,6 +2764,12 @@
         <is>
           <t xml:space="preserve">您好，这些症状可能是感冒的症状。建议您多喝水，休息好，可以口服退烧药和止咳药缓解症状。如果症状持续严重，可以就医咨询专业医生。
                                                                                      </t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>患者：医生，我最近感觉鼻塞、流鼻涕，有时候还伴有喉咙痛和咳嗽，请问我该怎么办？
+医生：您好，根据您的描述，您可能是感冒了。感冒是一种常见的病毒性疾病，通常会自愈，但在此期间，您可以采取一些措施来缓解症状。首先，确保充足的休息，让身体有足够的能量来对抗病毒。其次，多喝水，保持身体水分平衡，有助于缓解喉咙痛和咳嗽。此外，您可以使用一些非处方药物，如解热镇痛药(如布洛芬或对乙酰</t>
         </is>
       </c>
     </row>
@@ -2618,6 +2811,15 @@
                    </t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>亲爱的用户，
+首先，我很高兴您能来寻求帮助。失眠和焦虑是很常见的问题，很多人都会遇到。请允许我为您提供一些建议来帮助您缓解这些症状。
+1. 呼吸练习：当您感到焦虑时，尝试进行深呼吸练习。吸气时数到4，然后呼气时数到4。重复这个过程，直到您感到更加放松。
+2. 运动：定期进行运动可以帮助您减轻焦虑和改善睡眠质量。尝试每天进行30分钟的有氧运动，如散步、跑步或游泳。
+3.</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="B76" t="inlineStr">
@@ -2639,6 +2841,12 @@
         <is>
           <t xml:space="preserve">作为一名医生，我建议您尽快就医。喉咙痛和咳嗽是许多疾病的症状，包括感冒、流感、支气管炎等。如果您的症状持续严重或持续时间过长，建议您尽快就医，以便进行进一步检查和治疗。
                                                                        </t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>用户：我最近总是喉咙痛、咳嗽，怎么办呢？
+医生：您好，根据您的症状，可能是由于感冒或喉咙发炎引起的。我建议您多喝水，保持室内空气湿润，避免吸烟和刺激性食物。此外，您可以使用一些喉糖或含片来缓解喉咙痛。如果症状持续或恶化，请及时就诊。</t>
         </is>
       </c>
     </row>

--- a/output-latest.xlsx
+++ b/output-latest.xlsx
@@ -848,7 +848,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>苹果是一种广泛种植的水果，它是一种圆形或略带椭圆形的水果，通常有红色、绿色或黄色的皮。苹果富含维生素和纤维素，是一种重要的营养来源。苹果也是一种广泛用于烹饪和制造其他产品的天然材料。</t>
+          <t>苹果是一种广泛种植的水果，它是一种圆形或略带椭圆形的水果，通常有红色、绿色或黄色的皮。苹果富含维生素和纤维素，是一种重要的营养来源。它们在世界各地广泛种植，是一种广泛消费的水果。</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1202,7 +1202,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>很抱歉，您没有提供足够的信息来生成一个包含时间、地点、人物、动作和原因的复杂句子。请提供更多信息，以便我能够更好地帮助您。</t>
+          <t>Please provide me with the time, location, characters, actions, and reasons for the sentence you would like me to generate.</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1385,7 +1385,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>为了节省能源和环保，我们建议使用太阳能作为主要能源来源。太阳能是一种可再生的清洁能源，它不会产生任何污染物或温室气体。通过安装太阳能电池板，可以将太阳能转化为电能并储存起来，以便在夜间或天气不好时使用。此外，使用太阳能还可以减少对化石燃料的依赖，从而降低温室气体排放量。因此，我们强烈建议您考虑使用太阳能作为主要能源来源，以实现可持续发展和环保目标。</t>
+          <t>为了节省能源和环保，我们建议使用太阳能作为主要能源来源。太阳能是一种可再生的清洁能源，它不会产生任何污染物或温室气体。通过安装太阳能电池板，可以将太阳能转化为电能并储存起来，以便在夜间或天气不好时使用。此外，使用太阳能还可以减少对化石燃料的依赖，从而减少温室气体的排放。因此，我们强烈建议您考虑使用太阳能作为主要能源来源，以实现可持续发展和环保目标。</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1417,9 +1417,8 @@
 1. 提高能源利用效率，减少浪费和污染。
 2. 推广可再生能源，如太阳能和风能，以减少对化石燃料的依赖。
 3. 减少塑料制品的使用，例如一次性塑料袋和一次性餐具，以减少塑料污染。
-4. 推广循环经济，例如回收和再利用废弃物，以减少废弃物的数量。
-5. 鼓励节约用水，例如在刷牙时关闭水龙头，以减少用水量。
-6. 减少食品</t>
+4. 推广循环经济，例如回收和再利用废弃物，以减少浪费和减少对自然资源的依赖。
+5. 鼓励节约行为，例如节约用水和用电，以减少对自然资源的浪费。</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1450,8 +1449,8 @@
           <t>保护环境是我们每个人的责任。我们应该采取措施，减少对地球的负面影响，保护我们的家园。以下是一些可以采取的措施：
 1. 减少使用一次性塑料制品，如购物袋，吸管和餐具。选择环保的可重复使用的替代品。
 2. 节约用水。尽量减少每天使用的水量，例如洗车时不要乱洒水、不浪费水等。
-3. 减少使用化学品。尽可能地减少使用有害化学品，如杀虫剂和农药等。
-4. 推广垃圾分类。将垃圾归类为可回收，有害和非可回收</t>
+3. 减少使用化学品，如杀虫剂和农药等。选择环保的替代品，或者采取措施减少使用。
+4. 推广垃圾分类。将垃圾归类为可回收</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1883,7 +1882,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>夏日炎炎，如何消暑解渴？来试试我们的夏日限定冰淇淋吧！每一口都散发着清凉的口感，让人陶醉其中。这个夏天，让我们共同享受这份美味，感受夏日的限定冰淇淋之旅！</t>
+          <t>夏日炎炎，如何消暑解渴？来试试我们的夏日限定冰淇淋吧！每一口都让您感受到清凉的口感，浓郁的口味，让人无法抗拒。这个夏天，让我们共同享受这份美味，感受夏日的清凉世界！</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2752,12 +2751,12 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>作为一位医生，鼻塞、流鼻涕，有时候还伴有喉咙痛和咳嗽，可能是感冒的症状。这是一种由病毒引起的呼吸道疾病，通常会导致鼻塞、流鼻涕、喉咙痛和咳嗽等症状。
-建议采取以下措施来缓解症状：
-1. 多喝水：保持充足的水分有助于稀释黏液和减轻喉咙疼痛。
-2. 使用盐水漱口：使用盐水漱口可以减轻喉咙疼痛和缓解鼻塞。
-3. 休息：充足的休息有助于身体恢复和减轻症状。
-4. 服用药物：根据症状和医生的建议，可以考虑</t>
+          <t>作为医生，我会建议您采取以下措施来缓解感冒症状：
+1. 多喝水：饮水可以帮助稀释鼻涕和减轻喉咙痛，有助于缓解症状。
+2. 使用盐水漱口：使用盐水漱口可以减轻喉咙痛和缓解鼻塞。
+3. 服用药物：您可以根据需要服用非处方药，如退烧药、止咳药和止痛药。但请务必按照说明服用。
+4. 休息：休息可以减轻疲劳和缓解鼻塞。
+5. 避免接触过敏原：如果您感冒是由过敏引起的，请尽量避免接触过敏原，如</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
